--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-11T09:57:47+00:00</t>
+    <t>2025-07-16T13:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:28:42+00:00</t>
+    <t>2025-07-16T13:29:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:29:24+00:00</t>
+    <t>2025-07-16T13:52:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-16T13:52:06+00:00</t>
+    <t>2025-07-17T14:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -440,7 +440,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-17T14:35:50+00:00</t>
+    <t>2025-07-18T06:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -234,7 +234,7 @@
     <t>*</t>
   </si>
   <si>
-    <t xml:space="preserve">Element
+    <t xml:space="preserve">
 </t>
   </si>
   <si>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T06:40:38+00:00</t>
+    <t>2025-07-21T11:52:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -102,7 +102,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Base</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -244,7 +244,7 @@
     <t>Base</t>
   </si>
   <si>
-    <t>FonctionQualifiee.fonctionQualifiee</t>
+    <t>FonctionQualifiee.typeSavoirFaire</t>
   </si>
   <si>
     <t>1</t>
@@ -254,10 +254,44 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+  </si>
+  <si>
+    <t>SavoirFaire.typeSavoirFaire</t>
+  </si>
+  <si>
+    <t>FonctionQualifiee.dateReconnaissance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">date
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateReconnaissance</t>
+  </si>
+  <si>
+    <t>FonctionQualifiee.dateAbandon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>FonctionQualifiee.fonctionQualifiee</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Fonction qualifiée.</t>
-  </si>
-  <si>
-    <t>preferred</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/fonctionQualifiee-vs</t>
@@ -563,7 +597,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -572,8 +606,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="28.50390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="28.50390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="31.375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="31.375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -597,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="56.8046875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -902,7 +936,7 @@
         <v>70</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>71</v>
@@ -914,6 +948,304 @@
         <v>70</v>
       </c>
       <c r="AJ3" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="M4" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="2"/>
+      <c r="R4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y6" s="2"/>
+      <c r="Z6" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:46+00:00</t>
+    <t>2025-07-21T14:08:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T14:08:48+00:00</t>
+    <t>2025-07-22T15:23:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T15:23:11+00:00</t>
+    <t>2025-07-23T06:24:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,7 +238,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
+    <t>Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -254,7 +254,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
+    <t>Le type de savoir-faire (qualifications/autres attributions) désigne par exemple:** une spécialité ordinale (S);** une compétence (C);** etc.</t>
   </si>
   <si>
     <t>preferred</t>
@@ -273,7 +273,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
+    <t>Date à laquelle, l’organisme donnant l’autorisation d’exercer une qualification a reconnu cette qualification ou date à laquelle l'attribution a été donnée au professionnel.</t>
   </si>
   <si>
     <t>SavoirFaire.dateReconnaissance</t>
@@ -282,7 +282,7 @@
     <t>FonctionQualifiee.dateAbandon</t>
   </si>
   <si>
-    <t xml:space="preserve"> Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
+    <t>Date à laquelle le professionnel a déclaré renoncer à l’exercice d’un savoir-faire ou date à laquelle il ne souhaite plus le faire apparaître.</t>
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
@@ -291,7 +291,7 @@
     <t>FonctionQualifiee.fonctionQualifiee</t>
   </si>
   <si>
-    <t xml:space="preserve"> Fonction qualifiée.</t>
+    <t>Fonction qualifiée.</t>
   </si>
   <si>
     <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/fonctionQualifiee-vs</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-23T06:24:09+00:00</t>
+    <t>2025-07-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T12:59:21+00:00</t>
+    <t>2025-07-24T13:17:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T13:17:05+00:00</t>
+    <t>2025-07-25T07:22:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -260,7 +260,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/terminologies/CodeSystem-TRE-R04-TypeSavoirFaire?vs</t>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R04-TypeSavoirFaire/FHIR/TRE-R04-TypeSavoirFaire?vs</t>
   </si>
   <si>
     <t>SavoirFaire.typeSavoirFaire</t>
@@ -631,7 +631,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="18.49609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="68.91015625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="73.68359375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:22:51+00:00</t>
+    <t>2025-07-25T07:53:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T07:53:56+00:00</t>
+    <t>2025-07-25T12:35:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:35:19+00:00</t>
+    <t>2025-07-25T12:45:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:45:05+00:00</t>
+    <t>2025-07-25T12:50:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-25T12:50:30+00:00</t>
+    <t>2025-07-29T07:08:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -286,6 +286,19 @@
   </si>
   <si>
     <t>SavoirFaire.dateAbandon</t>
+  </si>
+  <si>
+    <t>FonctionQualifiee.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
+  </si>
+  <si>
+    <t>SavoirFaire.exerciceProfessionnel</t>
   </si>
   <si>
     <t>FonctionQualifiee.fonctionQualifiee</t>
@@ -597,7 +610,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -606,8 +619,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="31.375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="31.375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="32.27734375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="32.27734375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
@@ -616,7 +629,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="7.6796875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1164,7 +1177,7 @@
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>77</v>
@@ -1179,13 +1192,13 @@
         <v>70</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1212,11 +1225,13 @@
         <v>70</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y6" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>70</v>
+      </c>
       <c r="Z6" t="s" s="2">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>70</v>
@@ -1234,10 +1249,10 @@
         <v>70</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>77</v>
@@ -1246,6 +1261,104 @@
         <v>70</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>70</v>
       </c>
     </row>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="97">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-29T07:08:53+00:00</t>
+    <t>2025-07-31T13:33:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -236,9 +239,6 @@
   <si>
     <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>Expérience pratique exigée par le code de la santé publique (art R5124-16) pour exercer certaines fonctions dans l’industrie pharmaceutique et la distribution en gros. Ces dispositions s’appliquent uniquement à la profession de pharmacien.L’expérience pratique est en liaison avec les activités de l’établissement pharmaceutique telles que définies par l’ANSM ou l’ANSES.A ce jour, cinq expériences pratiques sont identifiées dont trois sont imbriquées. L’expérience pratique de "Fabricant" inclut celle d’"Exploitant" qui inclut celle de "Distribution".  Une fonction qualifiée est un type de savoir-faire. La classe FonctionQualifiee est représentée dans le modèle comme une spécialisation de la classe SavoirFaire et à ce titre, elle hérite des attributs et des associations de cette classe.</t>
   </si>
   <si>
     <t>Base</t>
@@ -541,39 +541,41 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>3</v>
@@ -581,26 +583,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -658,112 +660,112 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -775,95 +777,95 @@
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>74</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -875,23 +877,23 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -905,26 +907,26 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X3" t="s" s="2">
         <v>80</v>
@@ -934,34 +936,34 @@
         <v>81</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4">
@@ -973,23 +975,23 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>84</v>
@@ -1003,65 +1005,65 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -1073,23 +1075,23 @@
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>84</v>
@@ -1103,65 +1105,65 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
@@ -1173,7 +1175,7 @@
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -1183,13 +1185,13 @@
         <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>91</v>
@@ -1203,50 +1205,50 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>93</v>
@@ -1258,10 +1260,10 @@
         <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7">
@@ -1273,23 +1275,23 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>78</v>
@@ -1303,26 +1305,26 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" t="s" s="2">
         <v>80</v>
@@ -1332,34 +1334,34 @@
         <v>96</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
+++ b/poc-professionnel/ig/StructureDefinition-FonctionQualifiee.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/FonctionQualifiee</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/FonctionQualifiee</t>
   </si>
   <si>
     <t>Version</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-31T13:33:48+00:00</t>
+    <t>2025-10-13T08:05:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/SavoirFaire</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/StructureDefinition/SavoirFaire</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -291,7 +291,7 @@
     <t>FonctionQualifiee.exerciceProfessionnel</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/mos/StructureDefinition/ExerciceProfessionnel)
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
 </t>
   </si>
   <si>
@@ -307,7 +307,7 @@
     <t>Fonction qualifiée.</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/mos/ValueSet/fonctionQualifiee-vs</t>
+    <t>https://interop.esante.gouv.fr/ig/mos/ValueSet/fonctionQualifiee-vs</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.46875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
